--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uipath_project\Vnpay.Topup.VCB\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D55B826-70FA-4256-912D-DF1ABA7CF10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC1CEE4-AFD3-4CE0-BFA9-CCDEB6D50943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Key</t>
   </si>
@@ -37,6 +37,48 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Langha123@</t>
+  </si>
+  <si>
+    <t>3004016A49</t>
+  </si>
+  <si>
+    <t>110;651;652;654</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>Tên đăng nhập vào web VCB Banking</t>
+  </si>
+  <si>
+    <t>Mật khẩu vào web VCB Banking</t>
+  </si>
+  <si>
+    <t>Các mã tải Vntopup trên VCB Banking</t>
+  </si>
+  <si>
+    <t>KhoUsername</t>
+  </si>
+  <si>
+    <t>KhoPassword</t>
+  </si>
+  <si>
+    <t>Tên đăng nhập vào web kho VNPAY</t>
+  </si>
+  <si>
+    <t>Mật khẩu vào web kho VNPAY</t>
+  </si>
+  <si>
+    <t>TopupBankAcc</t>
+  </si>
+  <si>
+    <t>DoiQuaBankAcc</t>
+  </si>
+  <si>
+    <t>Mã tải GD đổi quà trên VCB Banking</t>
   </si>
 </sst>
 </file>
@@ -80,11 +122,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,35 +410,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="2" width="37.77734375" customWidth="1"/>
+    <col min="3" max="3" width="88" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2">
+        <v>39999</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uipath_project\Vnpay.Topup.VCB\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC1CEE4-AFD3-4CE0-BFA9-CCDEB6D50943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F681AB90-017E-4C02-8A3D-9733B6FA5E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uipath_project\Vnpay.Topup.VCB\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Facenet\Documents\UiPath\vcb\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F681AB90-017E-4C02-8A3D-9733B6FA5E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B86675A-6BBD-4DC0-A2D1-FFFE8F1C0712}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>110;651;652;654</t>
   </si>
   <si>
-    <t>Detail</t>
-  </si>
-  <si>
     <t>Tên đăng nhập vào web VCB Banking</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>Mã tải GD đổi quà trên VCB Banking</t>
+  </si>
+  <si>
+    <t>Giải thích</t>
   </si>
 </sst>
 </file>
@@ -413,17 +413,17 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="37.77734375" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
     <col min="3" max="3" width="88" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,10 +431,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -442,10 +442,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -453,48 +453,48 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2">
         <v>39999</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Facenet\Documents\UiPath\vcb\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uipath_project\Vnpay.Topup.VCB\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B86675A-6BBD-4DC0-A2D1-FFFE8F1C0712}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FF2834-125A-4751-B8DC-A65E2CFEE12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Key</t>
   </si>
@@ -48,6 +48,9 @@
     <t>110;651;652;654</t>
   </si>
   <si>
+    <t>Detail</t>
+  </si>
+  <si>
     <t>Tên đăng nhập vào web VCB Banking</t>
   </si>
   <si>
@@ -78,14 +81,17 @@
     <t>Mã tải GD đổi quà trên VCB Banking</t>
   </si>
   <si>
-    <t>Giải thích</t>
+    <t>thanhtoan</t>
+  </si>
+  <si>
+    <t>ThanhToan123@</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +103,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,10 +133,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -130,8 +145,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -412,18 +429,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" customWidth="1"/>
     <col min="3" max="3" width="88" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,10 +448,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -442,63 +459,73 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2">
         <v>39999</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{9BFDBF55-F576-4282-AA18-74C25F96CF8B}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{A9EBD8D3-C4DA-4A92-9EDE-72D8E3A93736}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uipath_project\Vnpay.Topup.VCB\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\vcb\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FF2834-125A-4751-B8DC-A65E2CFEE12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D0CADF-1D88-49AE-94E1-8168AD9BC5A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Key</t>
   </si>
@@ -85,13 +85,22 @@
   </si>
   <si>
     <t>ThanhToan123@</t>
+  </si>
+  <si>
+    <t>SenderMail</t>
+  </si>
+  <si>
+    <t>landh.ho@vietcombank.com.vn</t>
+  </si>
+  <si>
+    <t>Mail người gửi file topup hàng tháng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,14 +112,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,9 +134,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -144,11 +144,10 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,18 +428,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="37.77734375" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
     <col min="3" max="3" width="88" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -462,7 +461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -473,7 +472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -484,7 +483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -495,7 +494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -506,7 +505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -517,15 +516,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{9BFDBF55-F576-4282-AA18-74C25F96CF8B}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{A9EBD8D3-C4DA-4A92-9EDE-72D8E3A93736}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>